--- a/CS402-Sp24-Draft-Schedule.xlsx
+++ b/CS402-Sp24-Draft-Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs402-spring2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB1C001-68DF-44C2-9837-2965689726BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EB5EA0-1F6A-4D7D-A27B-D3C2141824CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5828" yWindow="338" windowWidth="22432" windowHeight="14857" xr2:uid="{28923DA2-90DB-47E2-B94E-ECFE9B6BB1C0}"/>
+    <workbookView xWindow="473" yWindow="240" windowWidth="14887" windowHeight="14858" xr2:uid="{28923DA2-90DB-47E2-B94E-ECFE9B6BB1C0}"/>
   </bookViews>
   <sheets>
     <sheet name="CS402-Prelim Scheudle" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Friday</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Milestone 1 Presentation: RevMetrix</t>
   </si>
   <si>
-    <t>Milestone 1 Presentation: PW &amp; YCPHacks</t>
-  </si>
-  <si>
     <t>Assign01: Individual Proposal &amp; Wish List due: RevMetrix</t>
   </si>
   <si>
@@ -98,16 +95,22 @@
     <t>Assign02: Team Detailed Proposal, Design, and Schedule due: PW &amp; YCPHacks</t>
   </si>
   <si>
-    <t>Milestone 2 Presentation PW &amp; YCPHacks</t>
-  </si>
-  <si>
     <t>Final Presentation (Privilege Walk) - final class period</t>
   </si>
   <si>
     <t>Final Technical Reports and Peer Evals due</t>
   </si>
   <si>
-    <t>Mid-semester Peer Evals due</t>
+    <t>Milestone 1 Presentation: PW</t>
+  </si>
+  <si>
+    <t>Milestone 1 Presentation: YCPHacks</t>
+  </si>
+  <si>
+    <t>Milestone 2 Presentation YCPHacks</t>
+  </si>
+  <si>
+    <t>Milestone 2 Presentation PW</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB1940-B34F-4F83-BCB8-E449ECD30E0E}">
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -654,7 +657,7 @@
     </row>
     <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="str">
-        <f t="shared" ref="A9:A76" si="1">A2</f>
+        <f t="shared" ref="A9:A78" si="1">A2</f>
         <v>Saturday</v>
       </c>
       <c r="B9" s="5">
@@ -682,7 +685,7 @@
         <v>45327</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -705,7 +708,7 @@
         <v>45329</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -830,7 +833,7 @@
         <v>45341</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -853,7 +856,7 @@
         <v>45343</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1081,7 +1084,7 @@
         <v>45364</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1094,17 +1097,17 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="6" t="str">
+    <row r="50" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="10">
         <f t="shared" si="0"/>
         <v>45366</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>23</v>
+      <c r="D50" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1360,7 +1363,7 @@
         <v>45390</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1383,7 +1386,7 @@
         <v>45392</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1396,14 +1399,17 @@
         <v>45393</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="str">
-        <f t="shared" si="3"/>
+    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="9" t="str">
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="10">
         <f t="shared" si="2"/>
         <v>45394</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1536,7 +1542,7 @@
         <v>45407</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
@@ -1579,7 +1585,7 @@
         <v>45411</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1622,7 +1628,7 @@
         <v>45415</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -1701,7 +1707,7 @@
         <v>45422</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.45">
